--- a/results/table1/groupby_race_group.xlsx
+++ b/results/table1/groupby_race_group.xlsx
@@ -524,16 +524,16 @@
       </c>
       <c r="B4" s="1" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>415</v>
+        <v>791</v>
       </c>
       <c r="D4" t="n">
-        <v>1290</v>
+        <v>2520</v>
       </c>
       <c r="E4" t="n">
-        <v>531</v>
+        <v>1038</v>
       </c>
       <c r="F4" t="n">
-        <v>10477</v>
+        <v>19565</v>
       </c>
     </row>
     <row r="5">
@@ -549,22 +549,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>129 (31.1)</t>
+          <t>245 (31.0)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>578 (44.8)</t>
+          <t>1242 (49.3)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>188 (35.4)</t>
+          <t>402 (38.7)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3938 (37.6)</t>
+          <t>7738 (39.6)</t>
         </is>
       </c>
     </row>
@@ -577,22 +577,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>103 (24.8)</t>
+          <t>222 (28.1)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>306 (23.7)</t>
+          <t>571 (22.7)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>153 (28.8)</t>
+          <t>306 (29.5)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2523 (24.1)</t>
+          <t>4854 (24.8)</t>
         </is>
       </c>
     </row>
@@ -605,22 +605,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>105 (25.3)</t>
+          <t>195 (24.7)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>255 (19.8)</t>
+          <t>436 (17.3)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>111 (20.9)</t>
+          <t>209 (20.1)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2374 (22.7)</t>
+          <t>4282 (21.9)</t>
         </is>
       </c>
     </row>
@@ -633,22 +633,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>78 (18.8)</t>
+          <t>129 (16.3)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>151 (11.7)</t>
+          <t>271 (10.8)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>79 (14.9)</t>
+          <t>121 (11.7)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1642 (15.7)</t>
+          <t>2691 (13.8)</t>
         </is>
       </c>
     </row>
@@ -665,22 +665,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>160 (38.6)</t>
+          <t>311 (39.3)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>698 (54.1)</t>
+          <t>1373 (54.5)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>210 (39.5)</t>
+          <t>414 (39.9)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4418 (42.2)</t>
+          <t>8014 (41.0)</t>
         </is>
       </c>
     </row>
@@ -697,22 +697,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>117 (28.2)</t>
+          <t>235 (29.7)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>512 (39.7)</t>
+          <t>1071 (42.5)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>164 (30.9)</t>
+          <t>320 (30.8)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5218 (49.8)</t>
+          <t>9814 (50.2)</t>
         </is>
       </c>
     </row>
@@ -725,22 +725,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>79 (19.0)</t>
+          <t>148 (18.7)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>152 (11.8)</t>
+          <t>295 (11.7)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>101 (19.0)</t>
+          <t>221 (21.3)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>577 (5.5)</t>
+          <t>1117 (5.7)</t>
         </is>
       </c>
     </row>
@@ -753,22 +753,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>219 (52.8)</t>
+          <t>408 (51.6)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>626 (48.5)</t>
+          <t>1154 (45.8)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>266 (50.1)</t>
+          <t>497 (47.9)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4682 (44.7)</t>
+          <t>8634 (44.1)</t>
         </is>
       </c>
     </row>
@@ -785,22 +785,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>262 (63.1)</t>
+          <t>497 (62.8)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>163 (12.6)</t>
+          <t>292 (11.6)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>314 (59.1)</t>
+          <t>623 (60.0)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>478 (4.6)</t>
+          <t>914 (4.7)</t>
         </is>
       </c>
     </row>
@@ -817,22 +817,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>53 (12.8)</t>
+          <t>102 (12.9)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>84 (6.5)</t>
+          <t>167 (6.6)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>55 (10.4)</t>
+          <t>118 (11.4)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1517 (14.5)</t>
+          <t>3108 (15.9)</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>159 (38.3)</t>
+          <t>289 (36.5)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>379 (29.4)</t>
+          <t>639 (25.4)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>204 (38.4)</t>
+          <t>357 (34.4)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4433 (42.3)</t>
+          <t>8033 (41.1)</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>87 (21.0)</t>
+          <t>142 (18.0)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>239 (18.5)</t>
+          <t>413 (16.4)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>93 (17.5)</t>
+          <t>138 (13.3)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1902 (18.2)</t>
+          <t>3038 (15.5)</t>
         </is>
       </c>
     </row>
@@ -913,22 +913,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>245 (59.0)</t>
+          <t>372 (47.0)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>762 (59.1)</t>
+          <t>1155 (45.8)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>324 (61.0)</t>
+          <t>485 (46.7)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6392 (61.0)</t>
+          <t>9386 (48.0)</t>
         </is>
       </c>
     </row>
@@ -945,22 +945,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>22 (5.3)</t>
+          <t>35 (4.4)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>98 (7.6)</t>
+          <t>133 (5.3)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>39 (7.3)</t>
+          <t>58 (5.6)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>723 (6.9)</t>
+          <t>1006 (5.1)</t>
         </is>
       </c>
     </row>
@@ -977,22 +977,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>230 (55.4)</t>
+          <t>397 (50.2)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>601 (46.6)</t>
+          <t>996 (39.5)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>277 (52.2)</t>
+          <t>459 (44.2)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5941 (56.7)</t>
+          <t>9681 (49.5)</t>
         </is>
       </c>
     </row>
@@ -1009,22 +1009,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>240 (57.8)</t>
+          <t>452 (57.1)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>949 (73.6)</t>
+          <t>1823 (72.3)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>300 (56.5)</t>
+          <t>581 (56.0)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>6718 (64.1)</t>
+          <t>12416 (63.5)</t>
         </is>
       </c>
     </row>
@@ -1041,22 +1041,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>126 (30.4)</t>
+          <t>225 (28.4)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>499 (38.7)</t>
+          <t>975 (38.7)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>149 (28.1)</t>
+          <t>281 (27.1)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3677 (35.1)</t>
+          <t>6518 (33.3)</t>
         </is>
       </c>
     </row>
@@ -1073,22 +1073,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>60 (14.5)</t>
+          <t>131 (16.6)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>351 (27.2)</t>
+          <t>747 (29.6)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>119 (22.4)</t>
+          <t>242 (23.3)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2586 (24.7)</t>
+          <t>4796 (24.5)</t>
         </is>
       </c>
     </row>
@@ -1105,22 +1105,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>11 (2.7)</t>
+          <t>14 (1.8)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>16 (1.2)</t>
+          <t>33 (1.3)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3 (0.6)</t>
+          <t>7 (0.7)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>165 (1.6)</t>
+          <t>259 (1.3)</t>
         </is>
       </c>
     </row>
@@ -1137,22 +1137,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>114 (27.5)</t>
+          <t>217 (27.4)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>372 (28.8)</t>
+          <t>720 (28.6)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>148 (27.9)</t>
+          <t>287 (27.6)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3964 (37.8)</t>
+          <t>7393 (37.8)</t>
         </is>
       </c>
     </row>
@@ -1169,22 +1169,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1 (0.2)</t>
+          <t>2 (0.3)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1 (0.1)</t>
+          <t>2 (0.1)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1 (0.2)</t>
+          <t>2 (0.2)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2 (0.0)</t>
+          <t>8 (0.0)</t>
         </is>
       </c>
     </row>
@@ -1197,22 +1197,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2 (0.5)</t>
+          <t>3 (0.4)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>17 (1.3)</t>
+          <t>38 (1.5)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2 (0.4)</t>
+          <t>5 (0.5)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>70 (0.7)</t>
+          <t>130 (0.7)</t>
         </is>
       </c>
     </row>
@@ -1225,22 +1225,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>23 (5.5)</t>
+          <t>45 (5.7)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>119 (9.2)</t>
+          <t>238 (9.4)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>36 (6.8)</t>
+          <t>68 (6.6)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>559 (5.3)</t>
+          <t>1092 (5.6)</t>
         </is>
       </c>
     </row>
@@ -1253,22 +1253,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>389 (93.7)</t>
+          <t>741 (93.7)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1153 (89.4)</t>
+          <t>2242 (89.0)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>492 (92.7)</t>
+          <t>963 (92.8)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>9846 (94.0)</t>
+          <t>18335 (93.7)</t>
         </is>
       </c>
     </row>
@@ -1285,22 +1285,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4 (1.0)</t>
+          <t>12 (1.5)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>32 (2.5)</t>
+          <t>88 (3.5)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12 (2.3)</t>
+          <t>30 (2.9)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>266 (2.5)</t>
+          <t>525 (2.7)</t>
         </is>
       </c>
     </row>
@@ -1313,22 +1313,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>128 (30.8)</t>
+          <t>242 (30.6)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>517 (40.1)</t>
+          <t>1021 (40.5)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>197 (37.1)</t>
+          <t>393 (37.9)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2782 (26.6)</t>
+          <t>5240 (26.8)</t>
         </is>
       </c>
     </row>
@@ -1341,22 +1341,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>283 (68.2)</t>
+          <t>537 (67.9)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>741 (57.4)</t>
+          <t>1411 (56.0)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>322 (60.6)</t>
+          <t>615 (59.2)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>7429 (70.9)</t>
+          <t>13800 (70.5)</t>
         </is>
       </c>
     </row>
@@ -1373,22 +1373,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>15 (3.6)</t>
+          <t>27 (3.4)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>68 (5.3)</t>
+          <t>142 (5.6)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>14 (2.6)</t>
+          <t>37 (3.6)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>450 (4.3)</t>
+          <t>820 (4.2)</t>
         </is>
       </c>
     </row>
@@ -1405,22 +1405,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>23 (5.5)</t>
+          <t>39 (4.9)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>78 (6.0)</t>
+          <t>145 (5.8)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>28 (5.3)</t>
+          <t>46 (4.4)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>499 (4.8)</t>
+          <t>852 (4.4)</t>
         </is>
       </c>
     </row>
@@ -1437,18 +1437,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>3 (0.7)</t>
+          <t>6 (0.8)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>12 (0.9)</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
+          <t>23 (0.9)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>4 (0.4)</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>86 (0.8)</t>
+          <t>153 (0.8)</t>
         </is>
       </c>
     </row>
@@ -1463,20 +1467,24 @@
           <t>1.0</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1 (0.1)</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1 (0.1)</t>
+          <t>8 (0.3)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1 (0.2)</t>
+          <t>2 (0.2)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>22 (0.2)</t>
+          <t>72 (0.4)</t>
         </is>
       </c>
     </row>
@@ -1494,13 +1502,13 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3 (0.2)</t>
+          <t>4 (0.2)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>21 (0.2)</t>
+          <t>47 (0.2)</t>
         </is>
       </c>
     </row>
@@ -1513,22 +1521,22 @@
       <c r="B37" s="1" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>67 [55,78]</t>
+          <t>67 [54,78]</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>65 [54,76]</t>
+          <t>66 [54,76]</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>59 [45,70]</t>
+          <t>58 [46,70]</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>68 [57,79]</t>
+          <t>68 [57,78]</t>
         </is>
       </c>
     </row>
@@ -1541,22 +1549,22 @@
       <c r="B38" s="1" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5.38 [3.46,9.12]</t>
+          <t>3.77 [1.76,7.23]</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5.54 [3.56,10.34]</t>
+          <t>3.92 [1.83,8.38]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>5.83 [3.67,9.63]</t>
+          <t>4.21 [2.34,8.08]</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>5.79 [3.50,10.17]</t>
+          <t>4.04 [1.92,8.49]</t>
         </is>
       </c>
     </row>
@@ -1569,22 +1577,22 @@
       <c r="B39" s="1" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>4.04 [2.79,7.75]</t>
+          <t>2.58 [1.42,5.13]</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4.29 [2.88,8.15]</t>
+          <t>2.79 [1.54,5.69]</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4.33 [2.84,8.69]</t>
+          <t>2.52 [1.46,5.01]</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>4.13 [2.79,7.48]</t>
+          <t>2.63 [1.42,5.17]</t>
         </is>
       </c>
     </row>
@@ -1607,7 +1615,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5 [3,8]</t>
+          <t>5 [3,7]</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1625,7 +1633,7 @@
       <c r="B41" s="1" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>5 [4,8]</t>
+          <t>5 [3,8]</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1635,12 +1643,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>5 [3,9]</t>
+          <t>5 [3,7]</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>5 [3,8]</t>
+          <t>5 [3,7]</t>
         </is>
       </c>
     </row>
@@ -1653,22 +1661,22 @@
       <c r="B42" s="1" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.31 [0.14,0.53]</t>
+          <t>0.33 [0.16,0.54]</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.31 [0.15,0.51]</t>
+          <t>0.31 [0.16,0.52]</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.30 [0.14,0.50]</t>
+          <t>0.30 [0.16,0.50]</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.27 [0.13,0.46]</t>
+          <t>0.28 [0.14,0.47]</t>
         </is>
       </c>
     </row>
@@ -1681,22 +1689,22 @@
       <c r="B43" s="1" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
+          <t>2.0 [1.0,6.0]</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>2.0 [1.0,7.0]</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>2.0 [1.0,8.0]</t>
-        </is>
-      </c>
       <c r="E43" t="inlineStr">
         <is>
+          <t>2.0 [1.0,5.0]</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
           <t>3.0 [1.0,7.0]</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>3.0 [1.0,8.0]</t>
         </is>
       </c>
     </row>
@@ -1709,22 +1717,22 @@
       <c r="B44" s="1" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>70.5 [39.5,153.5]</t>
+          <t>64.0 [12.0,144.0]</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>31.5 [8.2,103.0]</t>
+          <t>29.0 [4.0,98.0]</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>34.0 [6.0,75.5]</t>
+          <t>25.0 [2.0,69.2]</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>43.0 [11.0,97.0]</t>
+          <t>32.0 [7.0,87.0]</t>
         </is>
       </c>
     </row>
@@ -1737,22 +1745,22 @@
       <c r="B45" s="1" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>3.0 [1.0,14.0]</t>
+          <t>3.0 [1.0,9.0]</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3.0 [1.0,13.2]</t>
+          <t>3.0 [1.0,10.0]</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4.0 [1.0,14.5]</t>
+          <t>3.0 [1.0,8.0]</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>3.0 [1.0,10.0]</t>
+          <t>3.0 [1.0,7.0]</t>
         </is>
       </c>
     </row>
@@ -1765,22 +1773,22 @@
       <c r="B46" s="1" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.25 [0.09,0.47]</t>
+          <t>0.24 [0.08,0.47]</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.21 [0.07,0.45]</t>
+          <t>0.20 [0.06,0.45]</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.22 [0.08,0.45]</t>
+          <t>0.20 [0.08,0.44]</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.25 [0.09,0.47]</t>
+          <t>0.24 [0.08,0.48]</t>
         </is>
       </c>
     </row>

--- a/results/table1/groupby_race_group.xlsx
+++ b/results/table1/groupby_race_group.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
